--- a/Data/LexicalData.xlsx
+++ b/Data/LexicalData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityRepository\Text Tiles\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityRepository\TextTiles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Letter</t>
   </si>
@@ -121,7 +121,10 @@
     <t>Word Count</t>
   </si>
   <si>
-    <t>Letter Value</t>
+    <t>Adjusted Value</t>
+  </si>
+  <si>
+    <t>Spawn Probability</t>
   </si>
 </sst>
 </file>
@@ -2116,16 +2119,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2151,16 +2154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>544830</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2445,19 +2448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2467,8 +2471,11 @@
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2478,8 +2485,11 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2487,10 +2497,13 @@
         <v>9.4799999999999995E-2</v>
       </c>
       <c r="C3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2498,10 +2511,13 @@
         <v>8.8550000000000004E-2</v>
       </c>
       <c r="C4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2509,10 +2525,13 @@
         <v>7.6329999999999995E-2</v>
       </c>
       <c r="C5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2520,175 +2539,310 @@
         <v>7.0980000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>6.7379999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>6.5659999999999996E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>6.5310000000000007E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>5.3400000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>4.0489999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>3.4630000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>3.288E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>2.9409999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>2.8299999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>2.7470000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2">
         <v>2.3199999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2">
         <v>1.9009999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>1.6320000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>1.264E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>9.7300000000000008E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2">
         <v>9.1199999999999996E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>7.8300000000000002E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>4.79E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="2">
         <v>1.6800000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="2">
         <v>1.6299999999999999E-3</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f>SUM(D2:D27)</f>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2857,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2833,11 +2987,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:B15">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Data/LexicalData.xlsx
+++ b/Data/LexicalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8052"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8052" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Letter Freq" sheetId="1" r:id="rId1"/>
@@ -647,425 +647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Freq'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Word Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Word Freq'!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Word Freq'!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4030</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8938</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15788</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24029</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29766</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22326</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11417</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7750</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5059</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3157</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-34A0-4C6B-9141-1E37BA0BD594}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="597507424"/>
-        <c:axId val="597506440"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="597507424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="597506440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="597506440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="597507424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1599,522 +1181,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2133,41 +1199,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2450,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2856,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2989,6 +2020,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/LexicalData.xlsx
+++ b/Data/LexicalData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8052" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8052" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Letter Freq" sheetId="1" r:id="rId1"/>
     <sheet name="Word Freq" sheetId="2" r:id="rId2"/>
+    <sheet name="Words Containg Letter" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Letter Freq'!$A$1:$B$1</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Letter</t>
   </si>
@@ -125,6 +126,48 @@
   </si>
   <si>
     <t>Spawn Probability</t>
+  </si>
+  <si>
+    <t>n = 2</t>
+  </si>
+  <si>
+    <t>n = 3</t>
+  </si>
+  <si>
+    <t>n = 4</t>
+  </si>
+  <si>
+    <t>n = 5</t>
+  </si>
+  <si>
+    <t>n = 6</t>
+  </si>
+  <si>
+    <t>n = 7</t>
+  </si>
+  <si>
+    <t>n = 8</t>
+  </si>
+  <si>
+    <t>n = 9</t>
+  </si>
+  <si>
+    <t>n = 10</t>
+  </si>
+  <si>
+    <t>n = 11</t>
+  </si>
+  <si>
+    <t>n = 12</t>
+  </si>
+  <si>
+    <t>n = 13</t>
+  </si>
+  <si>
+    <t>n = 14</t>
+  </si>
+  <si>
+    <t>n = 15</t>
   </si>
 </sst>
 </file>
@@ -1885,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,6 +2060,1302 @@
         <v>3157</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>178691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="R14:S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>313</v>
+      </c>
+      <c r="D2">
+        <v>1424</v>
+      </c>
+      <c r="E2">
+        <v>3620</v>
+      </c>
+      <c r="F2">
+        <v>6829</v>
+      </c>
+      <c r="G2">
+        <v>11240</v>
+      </c>
+      <c r="H2">
+        <v>15141</v>
+      </c>
+      <c r="I2">
+        <v>16124</v>
+      </c>
+      <c r="J2">
+        <v>12915</v>
+      </c>
+      <c r="K2">
+        <v>9982</v>
+      </c>
+      <c r="L2">
+        <v>7394</v>
+      </c>
+      <c r="M2">
+        <v>5330</v>
+      </c>
+      <c r="N2">
+        <v>3560</v>
+      </c>
+      <c r="O2">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>429</v>
+      </c>
+      <c r="E3">
+        <v>1023</v>
+      </c>
+      <c r="F3">
+        <v>2042</v>
+      </c>
+      <c r="G3">
+        <v>3437</v>
+      </c>
+      <c r="H3">
+        <v>4725</v>
+      </c>
+      <c r="I3">
+        <v>4830</v>
+      </c>
+      <c r="J3">
+        <v>3703</v>
+      </c>
+      <c r="K3">
+        <v>2691</v>
+      </c>
+      <c r="L3">
+        <v>1893</v>
+      </c>
+      <c r="M3">
+        <v>1337</v>
+      </c>
+      <c r="N3">
+        <v>910</v>
+      </c>
+      <c r="O3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>446</v>
+      </c>
+      <c r="E4">
+        <v>1412</v>
+      </c>
+      <c r="F4">
+        <v>3014</v>
+      </c>
+      <c r="G4">
+        <v>5511</v>
+      </c>
+      <c r="H4">
+        <v>8122</v>
+      </c>
+      <c r="I4">
+        <v>9320</v>
+      </c>
+      <c r="J4">
+        <v>8065</v>
+      </c>
+      <c r="K4">
+        <v>6538</v>
+      </c>
+      <c r="L4">
+        <v>5170</v>
+      </c>
+      <c r="M4">
+        <v>3742</v>
+      </c>
+      <c r="N4">
+        <v>2573</v>
+      </c>
+      <c r="O4">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>596</v>
+      </c>
+      <c r="E5">
+        <v>1617</v>
+      </c>
+      <c r="F5">
+        <v>3840</v>
+      </c>
+      <c r="G5">
+        <v>6189</v>
+      </c>
+      <c r="H5">
+        <v>8370</v>
+      </c>
+      <c r="I5">
+        <v>8788</v>
+      </c>
+      <c r="J5">
+        <v>6845</v>
+      </c>
+      <c r="K5">
+        <v>4795</v>
+      </c>
+      <c r="L5">
+        <v>3218</v>
+      </c>
+      <c r="M5">
+        <v>2015</v>
+      </c>
+      <c r="N5">
+        <v>1395</v>
+      </c>
+      <c r="O5">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>1370</v>
+      </c>
+      <c r="E6">
+        <v>3993</v>
+      </c>
+      <c r="F6">
+        <v>9594</v>
+      </c>
+      <c r="G6">
+        <v>15756</v>
+      </c>
+      <c r="H6">
+        <v>20410</v>
+      </c>
+      <c r="I6">
+        <v>21251</v>
+      </c>
+      <c r="J6">
+        <v>17036</v>
+      </c>
+      <c r="K6">
+        <v>12622</v>
+      </c>
+      <c r="L6">
+        <v>9023</v>
+      </c>
+      <c r="M6">
+        <v>6174</v>
+      </c>
+      <c r="N6">
+        <v>4144</v>
+      </c>
+      <c r="O6">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>324</v>
+      </c>
+      <c r="E7">
+        <v>708</v>
+      </c>
+      <c r="F7">
+        <v>1286</v>
+      </c>
+      <c r="G7">
+        <v>2204</v>
+      </c>
+      <c r="H7">
+        <v>3030</v>
+      </c>
+      <c r="I7">
+        <v>3099</v>
+      </c>
+      <c r="J7">
+        <v>2421</v>
+      </c>
+      <c r="K7">
+        <v>1768</v>
+      </c>
+      <c r="L7">
+        <v>1218</v>
+      </c>
+      <c r="M7">
+        <v>852</v>
+      </c>
+      <c r="N7">
+        <v>556</v>
+      </c>
+      <c r="O7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>424</v>
+      </c>
+      <c r="E8">
+        <v>1052</v>
+      </c>
+      <c r="F8">
+        <v>2386</v>
+      </c>
+      <c r="G8">
+        <v>4745</v>
+      </c>
+      <c r="H8">
+        <v>6227</v>
+      </c>
+      <c r="I8">
+        <v>6628</v>
+      </c>
+      <c r="J8">
+        <v>5694</v>
+      </c>
+      <c r="K8">
+        <v>4458</v>
+      </c>
+      <c r="L8">
+        <v>3172</v>
+      </c>
+      <c r="M8">
+        <v>2091</v>
+      </c>
+      <c r="N8">
+        <v>1282</v>
+      </c>
+      <c r="O8">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>448</v>
+      </c>
+      <c r="E9">
+        <v>1188</v>
+      </c>
+      <c r="F9">
+        <v>2331</v>
+      </c>
+      <c r="G9">
+        <v>3838</v>
+      </c>
+      <c r="H9">
+        <v>5340</v>
+      </c>
+      <c r="I9">
+        <v>5723</v>
+      </c>
+      <c r="J9">
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <v>3612</v>
+      </c>
+      <c r="L9">
+        <v>2760</v>
+      </c>
+      <c r="M9">
+        <v>1893</v>
+      </c>
+      <c r="N9">
+        <v>1302</v>
+      </c>
+      <c r="O9">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>178</v>
+      </c>
+      <c r="D10">
+        <v>911</v>
+      </c>
+      <c r="E10">
+        <v>2516</v>
+      </c>
+      <c r="F10">
+        <v>5707</v>
+      </c>
+      <c r="G10">
+        <v>11403</v>
+      </c>
+      <c r="H10">
+        <v>16127</v>
+      </c>
+      <c r="I10">
+        <v>17678</v>
+      </c>
+      <c r="J10">
+        <v>14939</v>
+      </c>
+      <c r="K10">
+        <v>12012</v>
+      </c>
+      <c r="L10">
+        <v>8913</v>
+      </c>
+      <c r="M10">
+        <v>6379</v>
+      </c>
+      <c r="N10">
+        <v>4227</v>
+      </c>
+      <c r="O10">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>102</v>
+      </c>
+      <c r="E11">
+        <v>184</v>
+      </c>
+      <c r="F11">
+        <v>310</v>
+      </c>
+      <c r="G11">
+        <v>437</v>
+      </c>
+      <c r="H11">
+        <v>405</v>
+      </c>
+      <c r="I11">
+        <v>416</v>
+      </c>
+      <c r="J11">
+        <v>307</v>
+      </c>
+      <c r="K11">
+        <v>195</v>
+      </c>
+      <c r="L11">
+        <v>118</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
+      <c r="N11">
+        <v>36</v>
+      </c>
+      <c r="O11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>430</v>
+      </c>
+      <c r="E12">
+        <v>924</v>
+      </c>
+      <c r="F12">
+        <v>1395</v>
+      </c>
+      <c r="G12">
+        <v>2201</v>
+      </c>
+      <c r="H12">
+        <v>2784</v>
+      </c>
+      <c r="I12">
+        <v>2483</v>
+      </c>
+      <c r="J12">
+        <v>1561</v>
+      </c>
+      <c r="K12">
+        <v>948</v>
+      </c>
+      <c r="L12">
+        <v>521</v>
+      </c>
+      <c r="M12">
+        <v>230</v>
+      </c>
+      <c r="N12">
+        <v>118</v>
+      </c>
+      <c r="O12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>96</v>
+      </c>
+      <c r="D13">
+        <v>812</v>
+      </c>
+      <c r="E13">
+        <v>2231</v>
+      </c>
+      <c r="F13">
+        <v>4685</v>
+      </c>
+      <c r="G13">
+        <v>8213</v>
+      </c>
+      <c r="H13">
+        <v>11508</v>
+      </c>
+      <c r="I13">
+        <v>11843</v>
+      </c>
+      <c r="J13">
+        <v>9365</v>
+      </c>
+      <c r="K13">
+        <v>7174</v>
+      </c>
+      <c r="L13">
+        <v>5484</v>
+      </c>
+      <c r="M13">
+        <v>3996</v>
+      </c>
+      <c r="N13">
+        <v>2753</v>
+      </c>
+      <c r="O13">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>107</v>
+      </c>
+      <c r="D14">
+        <v>511</v>
+      </c>
+      <c r="E14">
+        <v>1270</v>
+      </c>
+      <c r="F14">
+        <v>2585</v>
+      </c>
+      <c r="G14">
+        <v>4328</v>
+      </c>
+      <c r="H14">
+        <v>6038</v>
+      </c>
+      <c r="I14">
+        <v>6559</v>
+      </c>
+      <c r="J14">
+        <v>5718</v>
+      </c>
+      <c r="K14">
+        <v>4497</v>
+      </c>
+      <c r="L14">
+        <v>3359</v>
+      </c>
+      <c r="M14">
+        <v>2494</v>
+      </c>
+      <c r="N14">
+        <v>1677</v>
+      </c>
+      <c r="O14">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>119</v>
+      </c>
+      <c r="D15">
+        <v>692</v>
+      </c>
+      <c r="E15">
+        <v>1922</v>
+      </c>
+      <c r="F15">
+        <v>4642</v>
+      </c>
+      <c r="G15">
+        <v>8856</v>
+      </c>
+      <c r="H15">
+        <v>12664</v>
+      </c>
+      <c r="I15">
+        <v>14097</v>
+      </c>
+      <c r="J15">
+        <v>12252</v>
+      </c>
+      <c r="K15">
+        <v>10097</v>
+      </c>
+      <c r="L15">
+        <v>7767</v>
+      </c>
+      <c r="M15">
+        <v>5656</v>
+      </c>
+      <c r="N15">
+        <v>3839</v>
+      </c>
+      <c r="O15">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>239</v>
+      </c>
+      <c r="D16">
+        <v>1092</v>
+      </c>
+      <c r="E16">
+        <v>2632</v>
+      </c>
+      <c r="F16">
+        <v>4981</v>
+      </c>
+      <c r="G16">
+        <v>8306</v>
+      </c>
+      <c r="H16">
+        <v>11946</v>
+      </c>
+      <c r="I16">
+        <v>13299</v>
+      </c>
+      <c r="J16">
+        <v>11224</v>
+      </c>
+      <c r="K16">
+        <v>8878</v>
+      </c>
+      <c r="L16">
+        <v>6990</v>
+      </c>
+      <c r="M16">
+        <v>5133</v>
+      </c>
+      <c r="N16">
+        <v>3534</v>
+      </c>
+      <c r="O16">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>549</v>
+      </c>
+      <c r="E17">
+        <v>1310</v>
+      </c>
+      <c r="F17">
+        <v>2552</v>
+      </c>
+      <c r="G17">
+        <v>4469</v>
+      </c>
+      <c r="H17">
+        <v>6052</v>
+      </c>
+      <c r="I17">
+        <v>6637</v>
+      </c>
+      <c r="J17">
+        <v>5725</v>
+      </c>
+      <c r="K17">
+        <v>4647</v>
+      </c>
+      <c r="L17">
+        <v>3541</v>
+      </c>
+      <c r="M17">
+        <v>2606</v>
+      </c>
+      <c r="N17">
+        <v>1814</v>
+      </c>
+      <c r="O17">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>171</v>
+      </c>
+      <c r="G18">
+        <v>308</v>
+      </c>
+      <c r="H18">
+        <v>434</v>
+      </c>
+      <c r="I18">
+        <v>450</v>
+      </c>
+      <c r="J18">
+        <v>357</v>
+      </c>
+      <c r="K18">
+        <v>278</v>
+      </c>
+      <c r="L18">
+        <v>196</v>
+      </c>
+      <c r="M18">
+        <v>152</v>
+      </c>
+      <c r="N18">
+        <v>78</v>
+      </c>
+      <c r="O18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>843</v>
+      </c>
+      <c r="E19">
+        <v>2753</v>
+      </c>
+      <c r="F19">
+        <v>6268</v>
+      </c>
+      <c r="G19">
+        <v>10838</v>
+      </c>
+      <c r="H19">
+        <v>14758</v>
+      </c>
+      <c r="I19">
+        <v>15861</v>
+      </c>
+      <c r="J19">
+        <v>13085</v>
+      </c>
+      <c r="K19">
+        <v>10006</v>
+      </c>
+      <c r="L19">
+        <v>7387</v>
+      </c>
+      <c r="M19">
+        <v>5104</v>
+      </c>
+      <c r="N19">
+        <v>3428</v>
+      </c>
+      <c r="O19">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>152</v>
+      </c>
+      <c r="D20">
+        <v>1329</v>
+      </c>
+      <c r="E20">
+        <v>4124</v>
+      </c>
+      <c r="F20">
+        <v>7186</v>
+      </c>
+      <c r="G20">
+        <v>12774</v>
+      </c>
+      <c r="H20">
+        <v>17242</v>
+      </c>
+      <c r="I20">
+        <v>18197</v>
+      </c>
+      <c r="J20">
+        <v>14990</v>
+      </c>
+      <c r="K20">
+        <v>10685</v>
+      </c>
+      <c r="L20">
+        <v>7873</v>
+      </c>
+      <c r="M20">
+        <v>5564</v>
+      </c>
+      <c r="N20">
+        <v>3856</v>
+      </c>
+      <c r="O20">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>146</v>
+      </c>
+      <c r="D21">
+        <v>792</v>
+      </c>
+      <c r="E21">
+        <v>2139</v>
+      </c>
+      <c r="F21">
+        <v>4478</v>
+      </c>
+      <c r="G21">
+        <v>8291</v>
+      </c>
+      <c r="H21">
+        <v>12345</v>
+      </c>
+      <c r="I21">
+        <v>13990</v>
+      </c>
+      <c r="J21">
+        <v>12174</v>
+      </c>
+      <c r="K21">
+        <v>9942</v>
+      </c>
+      <c r="L21">
+        <v>7683</v>
+      </c>
+      <c r="M21">
+        <v>5629</v>
+      </c>
+      <c r="N21">
+        <v>3870</v>
+      </c>
+      <c r="O21">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>138</v>
+      </c>
+      <c r="D22">
+        <v>636</v>
+      </c>
+      <c r="E22">
+        <v>1657</v>
+      </c>
+      <c r="F22">
+        <v>3459</v>
+      </c>
+      <c r="G22">
+        <v>5907</v>
+      </c>
+      <c r="H22">
+        <v>7684</v>
+      </c>
+      <c r="I22">
+        <v>7852</v>
+      </c>
+      <c r="J22">
+        <v>6392</v>
+      </c>
+      <c r="K22">
+        <v>4764</v>
+      </c>
+      <c r="L22">
+        <v>3528</v>
+      </c>
+      <c r="M22">
+        <v>2500</v>
+      </c>
+      <c r="N22">
+        <v>1733</v>
+      </c>
+      <c r="O22">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>149</v>
+      </c>
+      <c r="E23">
+        <v>465</v>
+      </c>
+      <c r="F23">
+        <v>913</v>
+      </c>
+      <c r="G23">
+        <v>1430</v>
+      </c>
+      <c r="H23">
+        <v>2223</v>
+      </c>
+      <c r="I23">
+        <v>2446</v>
+      </c>
+      <c r="J23">
+        <v>2066</v>
+      </c>
+      <c r="K23">
+        <v>1726</v>
+      </c>
+      <c r="L23">
+        <v>1320</v>
+      </c>
+      <c r="M23">
+        <v>977</v>
+      </c>
+      <c r="N23">
+        <v>687</v>
+      </c>
+      <c r="O23">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>348</v>
+      </c>
+      <c r="E24">
+        <v>689</v>
+      </c>
+      <c r="F24">
+        <v>1151</v>
+      </c>
+      <c r="G24">
+        <v>1877</v>
+      </c>
+      <c r="H24">
+        <v>2418</v>
+      </c>
+      <c r="I24">
+        <v>2202</v>
+      </c>
+      <c r="J24">
+        <v>1436</v>
+      </c>
+      <c r="K24">
+        <v>860</v>
+      </c>
+      <c r="L24">
+        <v>453</v>
+      </c>
+      <c r="M24">
+        <v>223</v>
+      </c>
+      <c r="N24">
+        <v>114</v>
+      </c>
+      <c r="O24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>209</v>
+      </c>
+      <c r="F25">
+        <v>337</v>
+      </c>
+      <c r="G25">
+        <v>531</v>
+      </c>
+      <c r="H25">
+        <v>683</v>
+      </c>
+      <c r="I25">
+        <v>767</v>
+      </c>
+      <c r="J25">
+        <v>651</v>
+      </c>
+      <c r="K25">
+        <v>486</v>
+      </c>
+      <c r="L25">
+        <v>372</v>
+      </c>
+      <c r="M25">
+        <v>294</v>
+      </c>
+      <c r="N25">
+        <v>172</v>
+      </c>
+      <c r="O25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>418</v>
+      </c>
+      <c r="E26">
+        <v>1372</v>
+      </c>
+      <c r="F26">
+        <v>2017</v>
+      </c>
+      <c r="G26">
+        <v>2658</v>
+      </c>
+      <c r="H26">
+        <v>3534</v>
+      </c>
+      <c r="I26">
+        <v>3668</v>
+      </c>
+      <c r="J26">
+        <v>2983</v>
+      </c>
+      <c r="K26">
+        <v>2563</v>
+      </c>
+      <c r="L26">
+        <v>2162</v>
+      </c>
+      <c r="M26">
+        <v>1592</v>
+      </c>
+      <c r="N26">
+        <v>1025</v>
+      </c>
+      <c r="O26">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>88</v>
+      </c>
+      <c r="E27">
+        <v>227</v>
+      </c>
+      <c r="F27">
+        <v>431</v>
+      </c>
+      <c r="G27">
+        <v>642</v>
+      </c>
+      <c r="H27">
+        <v>830</v>
+      </c>
+      <c r="I27">
+        <v>1040</v>
+      </c>
+      <c r="J27">
+        <v>1030</v>
+      </c>
+      <c r="K27">
+        <v>841</v>
+      </c>
+      <c r="L27">
+        <v>681</v>
+      </c>
+      <c r="M27">
+        <v>547</v>
+      </c>
+      <c r="N27">
+        <v>441</v>
+      </c>
+      <c r="O27">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
